--- a/Eagle files/BOM_Project_design_v1.0.xlsx
+++ b/Eagle files/BOM_Project_design_v1.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsin/Documents/plant4you/Eagle files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\product_design\plant4you\Eagle files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Project_design_v1.0" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>Qty</t>
   </si>
@@ -246,12 +246,54 @@
   </si>
   <si>
     <t>CN1</t>
+  </si>
+  <si>
+    <t>passif components</t>
+  </si>
+  <si>
+    <t>connector</t>
+  </si>
+  <si>
+    <t>temperature sensor</t>
+  </si>
+  <si>
+    <t>battery regulation</t>
+  </si>
+  <si>
+    <t>brightness sensor</t>
+  </si>
+  <si>
+    <t>transistor NMOS</t>
+  </si>
+  <si>
+    <t>RGB LED</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>soil moisture sensor</t>
+  </si>
+  <si>
+    <t>micro precessor</t>
+  </si>
+  <si>
+    <t>ampli op</t>
+  </si>
+  <si>
+    <t>NMOS transistor</t>
+  </si>
+  <si>
+    <t>Micro-USB B Receptacle</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -281,8 +323,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,6 +340,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -559,22 +610,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +642,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -607,8 +662,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -624,8 +682,9 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -641,8 +700,9 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -658,8 +718,9 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -675,8 +736,9 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -692,8 +754,9 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -709,8 +772,9 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -726,8 +790,9 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -743,8 +808,9 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -760,8 +826,11 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -777,8 +846,11 @@
       <c r="E12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -794,8 +866,11 @@
       <c r="E13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -811,8 +886,11 @@
       <c r="E14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -828,8 +906,11 @@
       <c r="E15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -845,8 +926,11 @@
       <c r="E16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -862,8 +946,11 @@
       <c r="E17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -879,8 +966,11 @@
       <c r="E18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -896,8 +986,11 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -913,8 +1006,11 @@
       <c r="E20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -930,8 +1026,11 @@
       <c r="E21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -947,8 +1046,15 @@
       <c r="E22" t="s">
         <v>72</v>
       </c>
+      <c r="F22" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Eagle files/BOM_Project_design_v1.0.xlsx
+++ b/Eagle files/BOM_Project_design_v1.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\product_design\plant4you\Eagle files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsin/Documents/plant4you/Eagle files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Project_design_v1.0" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>Qty</t>
   </si>
@@ -89,12 +89,6 @@
     <t>L1, L2</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R05, R10, R20</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -131,15 +125,6 @@
     <t>CN2</t>
   </si>
   <si>
-    <t>MCP9700T-E/TT</t>
-  </si>
-  <si>
-    <t>SOT95P237X112-3N</t>
-  </si>
-  <si>
-    <t>IC5</t>
-  </si>
-  <si>
     <t>MCP73833T-AMI/MF</t>
   </si>
   <si>
@@ -206,15 +191,6 @@
     <t>SEN-13322</t>
   </si>
   <si>
-    <t>H1, H2, H3, H4, H5, H6, H7, H8</t>
-  </si>
-  <si>
-    <t>STM32F042K6T6</t>
-  </si>
-  <si>
-    <t>LQFP32-7X7</t>
-  </si>
-  <si>
     <t>IC4</t>
   </si>
   <si>
@@ -251,21 +227,9 @@
     <t>passif components</t>
   </si>
   <si>
-    <t>connector</t>
-  </si>
-  <si>
-    <t>temperature sensor</t>
-  </si>
-  <si>
-    <t>battery regulation</t>
-  </si>
-  <si>
     <t>brightness sensor</t>
   </si>
   <si>
-    <t>transistor NMOS</t>
-  </si>
-  <si>
     <t>RGB LED</t>
   </si>
   <si>
@@ -275,12 +239,6 @@
     <t>soil moisture sensor</t>
   </si>
   <si>
-    <t>micro precessor</t>
-  </si>
-  <si>
-    <t>ampli op</t>
-  </si>
-  <si>
     <t>NMOS transistor</t>
   </si>
   <si>
@@ -288,19 +246,157 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Cortex M3 MCU</t>
+  </si>
+  <si>
+    <t>AOP</t>
+  </si>
+  <si>
+    <t>LDO 3.3V</t>
+  </si>
+  <si>
+    <t>10k Potentiometer</t>
+  </si>
+  <si>
+    <t>H5, H6, H7, H8</t>
+  </si>
+  <si>
+    <t>H1, H2, H3, H4</t>
+  </si>
+  <si>
+    <t>3352E-1-103LF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potentiometer to easilly tune the quantity of water /channel </t>
+  </si>
+  <si>
+    <t>battery connector</t>
+  </si>
+  <si>
+    <t>battery charging IC</t>
+  </si>
+  <si>
+    <t>Price / u [CHF]</t>
+  </si>
+  <si>
+    <t>Price [CHF]</t>
+  </si>
+  <si>
+    <t>ATmega32u4</t>
+  </si>
+  <si>
+    <t>TQFP44</t>
+  </si>
+  <si>
+    <t>PIR Motion sensor</t>
+  </si>
+  <si>
+    <t>JST-3</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>Motion sensor</t>
+  </si>
+  <si>
+    <t>SEN-13285</t>
+  </si>
+  <si>
+    <t>Piezo-transducer</t>
+  </si>
+  <si>
+    <t>PKMCS0909E4000-R1</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>59630-1-T-02-F</t>
+  </si>
+  <si>
+    <t>JST-2</t>
+  </si>
+  <si>
+    <t>Reed float sensor</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>Level sensor</t>
+  </si>
+  <si>
+    <t>Water pump 3.3V</t>
+  </si>
+  <si>
+    <t>M1, M2, M3, M4</t>
+  </si>
+  <si>
+    <t>Water pump 3.3V to 12V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;CHF&quot;_ ;_ * \(#,##0.00\)\ &quot;CHF&quot;_ ;_ * &quot;-&quot;??_)\ &quot;CHF&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="#"/>
+    <numFmt numFmtId="165" formatCode="\$###,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF777777"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -320,10 +416,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,11 +428,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -346,6 +511,34 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H26" totalsRowCount="1" dataDxfId="16">
+  <autoFilter ref="A1:H25">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Qty" dataDxfId="15" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Value" dataDxfId="14" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Part Num" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Package" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Parts" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="Price / u [CHF]" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Price [CHF]" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(Tableau1[Price '[CHF']])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Comments" dataDxfId="10" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,23 +803,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,419 +839,752 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.153</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>603</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.37519999999999998</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.1255999999999999</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="J4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>603</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="J5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
+        <v>603</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="7"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>402</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11">
+        <v>7.46E-2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.6714</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="J8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>221</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3">
+        <v>603</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="J9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.56910000000000005</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.56910000000000005</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1.26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.1782</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.1782</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1.3884000000000001</v>
+      </c>
+      <c r="G16" s="11">
+        <v>5.5536000000000003</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="11">
+        <v>4.4829999999999997</v>
+      </c>
+      <c r="G18" s="11">
+        <v>4.4829999999999997</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1.3947000000000001</v>
+      </c>
+      <c r="G20" s="11">
+        <v>2.7894000000000001</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G21" s="11">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1.796</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1.796</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="11">
+        <v>6.7880000000000003</v>
+      </c>
+      <c r="G23" s="11">
+        <v>6.7880000000000003</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>603</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="B24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="11">
+        <v>4</v>
+      </c>
+      <c r="G24" s="11">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>603</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>603</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>603</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>402</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>221</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>603</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F25" s="10">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>85</v>
-      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <f>SUM(Tableau1[Price '[CHF']])</f>
+        <v>61.707300000000004</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="C31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:F10"/>
-  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Eagle files/BOM_Project_design_v1.0.xlsx
+++ b/Eagle files/BOM_Project_design_v1.0.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Project_design_v1.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -453,6 +453,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -478,9 +481,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -526,16 +526,16 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Qty" dataDxfId="15" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Value" dataDxfId="14" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Part Num" dataDxfId="13" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Package" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Parts" dataDxfId="11" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Price / u [CHF]" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Price [CHF]" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
+    <tableColumn id="1" name="Qty" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="Value" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" name="Part Num" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="Package" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" name="Parts" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Price / u [CHF]" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Price [CHF]" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUM(Tableau1[Price '[CHF']])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Comments" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -807,7 +807,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
